--- a/plan.xlsx
+++ b/plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>Quarter</t>
   </si>
@@ -166,12 +166,129 @@
   </si>
   <si>
     <t>Deploy Frontend to K8s</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Year plan 2024</t>
+  </si>
+  <si>
+    <t>Quarter plan 3</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Udacity project</t>
+  </si>
+  <si>
+    <t>Anhdv29</t>
+  </si>
+  <si>
+    <t>Quarter 1: Improve Coding skill</t>
+  </si>
+  <si>
+    <t>Complete udemy code for Java</t>
+  </si>
+  <si>
+    <t>Complete udemy code for Springboot</t>
+  </si>
+  <si>
+    <t>Quarter 2: Learn new sport</t>
+  </si>
+  <si>
+    <t>Learn to play pickle ball</t>
+  </si>
+  <si>
+    <t>Quarter 3: Build and deploy a python web project</t>
+  </si>
+  <si>
+    <t>Quarter 4: Gain Azure devops certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take and passAZ-400 certification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare and build python web project with scikit learn and flask </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +319,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -226,11 +349,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -244,15 +393,32 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -266,7 +432,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -280,7 +446,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -294,77 +460,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,91 +740,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="1" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45382</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4">
+        <v>45383</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45473</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4">
+        <v>45474</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45565</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4">
+        <v>45566</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -736,303 +918,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="11">
+        <v>45474</v>
+      </c>
+      <c r="E4" s="11">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="10">
+        <v>45474</v>
+      </c>
+      <c r="C7" s="10">
         <v>45478</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="10">
+        <v>45481</v>
+      </c>
+      <c r="C8" s="10">
         <v>45485</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="10">
+        <v>45488</v>
+      </c>
+      <c r="C9" s="10">
         <v>45492</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10">
+        <v>45495</v>
+      </c>
+      <c r="C10" s="10">
         <v>45499</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45502</v>
+      </c>
+      <c r="C11" s="10">
         <v>45506</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45509</v>
+      </c>
+      <c r="C12" s="10">
         <v>45513</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="10">
+        <v>45516</v>
+      </c>
+      <c r="C13" s="10">
         <v>45520</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10">
+        <v>45523</v>
+      </c>
+      <c r="C14" s="10">
         <v>45527</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="10">
+        <v>45530</v>
+      </c>
+      <c r="C15" s="10">
         <v>45534</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="10">
+        <v>45537</v>
+      </c>
+      <c r="C16" s="10">
         <v>45541</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D16" s="7"/>
+      <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45544</v>
+      </c>
+      <c r="C17" s="10">
         <v>45548</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45551</v>
+      </c>
+      <c r="C18" s="10">
         <v>45555</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Done"</formula>
+  <mergeCells count="6">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H7:H18">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"In progress"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"To Do"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"In progress"</formula>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="H7">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Medium"</formula>
+  <conditionalFormatting sqref="G7:G18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Hard"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Easy"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Hard"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Medium"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>